--- a/Tests/test_scalability/1st Test/space_scalability_test.xlsx
+++ b/Tests/test_scalability/1st Test/space_scalability_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c70b3aaaf2cd887d/研究相关/STvEA_Python/Tests/test_scalability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangliangyang/Library/CloudStorage/OneDrive-Personal/研究相关/STvEA_Python/Tests/test_scalability/1st Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DA82427541F7ACA7EB843604E03AE6BE8DE13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F969D9D9-6CFC-484E-8BD2-BEAFD3C5BD0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29117273-1424-0642-AAA5-1E5BC77F6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="13480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,13 +86,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -111,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +140,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -191,7 +202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -315,7 +326,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -478,7 +489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -516,7 +527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763900655"/>
@@ -596,7 +607,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -634,7 +645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1025485999"/>
@@ -682,7 +693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -696,7 +707,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -765,7 +776,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -845,7 +856,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -995,7 +1006,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1033,7 +1044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="109818224"/>
@@ -1113,7 +1124,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1151,7 +1162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="228816352"/>
@@ -1199,7 +1210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1213,7 +1224,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1283,7 +1294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1396,7 +1407,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1559,7 +1570,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1597,7 +1608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="109821696"/>
@@ -1677,7 +1688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1715,7 +1726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1826757920"/>
@@ -1763,7 +1774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3555,10 +3566,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3824,21 +3831,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I57" sqref="A50:I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.78515625" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3867,7 +3874,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3907,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3939,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4000,7 +4007,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4074,12 +4081,12 @@
         <v>2.6364878963533656</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -4232,12 +4239,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4266,7 +4273,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -4303,7 +4310,7 @@
         <v>3.9030899869919438</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -4361,7 +4368,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4390,7 +4397,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4427,7 +4434,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>

--- a/Tests/test_scalability/1st Test/space_scalability_test.xlsx
+++ b/Tests/test_scalability/1st Test/space_scalability_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangliangyang/Library/CloudStorage/OneDrive-Personal/研究相关/STvEA_Python/Tests/test_scalability/1st Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c70b3aaaf2cd887d/研究相关/STvEA_Python/Tests/test_scalability/1st Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29117273-1424-0642-AAA5-1E5BC77F6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -3831,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I57" sqref="A50:I57"/>
     </sheetView>
   </sheetViews>
